--- a/DataTable/localization_tables.xlsx
+++ b/DataTable/localization_tables.xlsx
@@ -97,10 +97,10 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>l10n.TbTextConfig_zh_CN</t>
-  </si>
-  <si>
-    <t>l10n.TextConfig_zh_CN</t>
+    <t>l10n.TbTextConfigChineseSimplified</t>
+  </si>
+  <si>
+    <t>l10n.TextConfigChineseSimplified</t>
   </si>
   <si>
     <t>.</t>
@@ -109,16 +109,16 @@
     <t>c</t>
   </si>
   <si>
-    <t>localization_zh_cn</t>
-  </si>
-  <si>
-    <t>l10n.TbTextConfig_en</t>
-  </si>
-  <si>
-    <t>l10n.TextConfig_en</t>
-  </si>
-  <si>
-    <t>localization_en</t>
+    <t>ChineseSimplified</t>
+  </si>
+  <si>
+    <t>l10n.TbTextConfigEnglish</t>
+  </si>
+  <si>
+    <t>l10n.TextConfigEnglish</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -1063,13 +1063,13 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.575" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="32.425" customWidth="1"/>
     <col min="5" max="5" width="24.3833333333333" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
